--- a/Modèle-audit-SEO (1).xlsx
+++ b/Modèle-audit-SEO (1).xlsx
@@ -273,7 +273,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Entreprendre des test automatis</t>
+      <t xml:space="preserve">Entreprendre des tests automatis</t>
     </r>
     <r>
       <rPr>
@@ -704,10 +704,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.71"/>
